--- a/Documentation/GapAnalysis.xlsx
+++ b/Documentation/GapAnalysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="gap analysis 1" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,6 @@
     <t>Future State</t>
   </si>
   <si>
-    <t>Gap Identification</t>
-  </si>
-  <si>
-    <t>Gap Description</t>
-  </si>
-  <si>
-    <t>Factors</t>
-  </si>
-  <si>
     <t>Stategic Objective</t>
   </si>
   <si>
@@ -85,38 +76,73 @@
     <t>Improve services</t>
   </si>
   <si>
-    <t>limited number of employees, no proper designation of tasks</t>
-  </si>
-  <si>
     <t>Have regular customer and built trust</t>
   </si>
   <si>
-    <t>Company only have two branches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">there are problems encountered </t>
-  </si>
-  <si>
     <t>Employee expansion</t>
   </si>
   <si>
     <t>More secured system</t>
   </si>
   <si>
-    <t>System password ussualy got hacked</t>
-  </si>
-  <si>
-    <t>Improve the security of the system</t>
+    <t>Improve the 
+security of the system</t>
+  </si>
+  <si>
+    <t>Company only have two branches in Makati and Bicol</t>
+  </si>
+  <si>
+    <t>Limited number of employees. No proper designation of tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are problems encountered in </t>
+  </si>
+  <si>
+    <t>Correcting problems
+ and obviating similar problems in the future</t>
+  </si>
+  <si>
+    <t>System password usually got hacked</t>
+  </si>
+  <si>
+    <t>Propose Human Resource 
+that can be use for proper delagation of employee</t>
+  </si>
+  <si>
+    <t>More advertisements
+ and promotions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,14 +164,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,89 +517,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="6" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -551,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,21 +620,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -589,28 +647,31 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/GapAnalysis.xlsx
+++ b/Documentation/GapAnalysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlbel\Desktop\Project---MNSYSIT\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aira Joyce\Documents\AIRA\Project---MNSYSIT\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Objectives</t>
   </si>
@@ -67,57 +67,39 @@
     <t>Next Actions/Proposals</t>
   </si>
   <si>
-    <t>More branch</t>
-  </si>
-  <si>
     <t>More customers</t>
   </si>
   <si>
-    <t>Improve services</t>
-  </si>
-  <si>
     <t>Have regular customer and built trust</t>
   </si>
   <si>
     <t>Employee expansion</t>
   </si>
   <si>
-    <t>More secured system</t>
-  </si>
-  <si>
-    <t>Improve the 
-security of the system</t>
-  </si>
-  <si>
-    <t>Company only have two branches in Makati and Bicol</t>
-  </si>
-  <si>
     <t>Limited number of employees. No proper designation of tasks</t>
   </si>
   <si>
-    <t xml:space="preserve">There are problems encountered in </t>
-  </si>
-  <si>
-    <t>Correcting problems
- and obviating similar problems in the future</t>
-  </si>
-  <si>
-    <t>System password usually got hacked</t>
-  </si>
-  <si>
-    <t>Propose Human Resource 
-that can be use for proper delagation of employee</t>
-  </si>
-  <si>
-    <t>More advertisements
- and promotions</t>
+    <t>Enhance web services</t>
+  </si>
+  <si>
+    <t>Not enough details in website and bad user interface</t>
+  </si>
+  <si>
+    <t>Enhance website design and content. Make online transaction visible in the website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More advertisements
+ and promotions </t>
+  </si>
+  <si>
+    <t>Hire more employees by adding recruitment advertisement in the website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,7 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,14 +117,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,22 +168,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -203,8 +186,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,74 +518,56 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
